--- a/Code/Results/Cases/Case_1_217/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_217/res_line/loading_percent.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>24.09425991988783</v>
+        <v>19.5551867389672</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>4.138956392045844</v>
+        <v>3.511193309794155</v>
       </c>
       <c r="E2">
-        <v>42.36385956891545</v>
+        <v>30.56414320093915</v>
       </c>
       <c r="F2">
-        <v>13.37518868141992</v>
+        <v>16.23442045071431</v>
       </c>
       <c r="G2">
-        <v>16.35125572377683</v>
+        <v>15.24396481127946</v>
       </c>
       <c r="H2">
-        <v>5.72050105730365</v>
+        <v>10.66047157887486</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -451,7 +451,7 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>17.42653404424269</v>
+        <v>12.21951769931389</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>9.147747188037288</v>
+        <v>14.40858965083575</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>22.58395548607518</v>
+        <v>18.98535455987903</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>3.914406036811312</v>
+        <v>3.423019758495528</v>
       </c>
       <c r="E3">
-        <v>39.911304219352</v>
+        <v>29.55224194743879</v>
       </c>
       <c r="F3">
-        <v>12.71786548043232</v>
+        <v>16.25993267479086</v>
       </c>
       <c r="G3">
-        <v>15.0923576024719</v>
+        <v>15.22173495210235</v>
       </c>
       <c r="H3">
-        <v>5.747406399337878</v>
+        <v>10.72744311086956</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -498,7 +498,7 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>16.28935820687672</v>
+        <v>11.70213290230438</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>8.919134595213389</v>
+        <v>14.50580451159985</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>21.61042312048241</v>
+        <v>18.62667419928117</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>3.769514378593742</v>
+        <v>3.367696547106809</v>
       </c>
       <c r="E4">
-        <v>38.34035897582383</v>
+        <v>28.91932719929798</v>
       </c>
       <c r="F4">
-        <v>12.32677293704323</v>
+        <v>16.2846156664853</v>
       </c>
       <c r="G4">
-        <v>14.36071578651879</v>
+        <v>15.22256976625725</v>
       </c>
       <c r="H4">
-        <v>5.774969815346385</v>
+        <v>10.77168326392987</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -545,7 +545,7 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>15.55332574873715</v>
+        <v>11.37111731351229</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>8.802146605343408</v>
+        <v>14.57221457812901</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>21.20213105140629</v>
+        <v>18.47847566522514</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>3.708737337158242</v>
+        <v>3.344881738717013</v>
       </c>
       <c r="E5">
-        <v>37.68429182851874</v>
+        <v>28.65894404764164</v>
       </c>
       <c r="F5">
-        <v>12.17081898576647</v>
+        <v>16.29692374009552</v>
       </c>
       <c r="G5">
-        <v>14.08637083850697</v>
+        <v>15.22652042297453</v>
       </c>
       <c r="H5">
-        <v>5.788800263381563</v>
+        <v>10.79049288575182</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -592,7 +592,7 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>15.24385182835665</v>
+        <v>11.23300693721584</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>8.76021008654598</v>
+        <v>14.60095063889294</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>21.13363791298267</v>
+        <v>18.45375012214535</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>3.698541806156354</v>
+        <v>3.341077881753296</v>
       </c>
       <c r="E6">
-        <v>37.57440866021907</v>
+        <v>28.61557268319184</v>
       </c>
       <c r="F6">
-        <v>12.14513766848477</v>
+        <v>16.29910277280427</v>
       </c>
       <c r="G6">
-        <v>14.04099802016896</v>
+        <v>15.22739337146813</v>
       </c>
       <c r="H6">
-        <v>5.791248526390823</v>
+        <v>10.7936633172457</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -639,7 +639,7 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>15.19188756867426</v>
+        <v>11.20988374739429</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>8.753587892942592</v>
+        <v>14.60582283045584</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>21.60496350249959</v>
+        <v>18.6246835276272</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>3.768701685073605</v>
+        <v>3.367389914664843</v>
       </c>
       <c r="E7">
-        <v>38.33157466622171</v>
+        <v>28.9158249374936</v>
       </c>
       <c r="F7">
-        <v>12.32465547242096</v>
+        <v>16.2847725750767</v>
       </c>
       <c r="G7">
-        <v>14.3570040842141</v>
+        <v>15.22260847678614</v>
       </c>
       <c r="H7">
-        <v>5.77514605292031</v>
+        <v>10.77193377715692</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -686,7 +686,7 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>15.54919070584571</v>
+        <v>11.36926754835107</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>8.801558031811766</v>
+        <v>14.57259536880947</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>23.58311121523442</v>
+        <v>19.36063882931205</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>4.063004563640736</v>
+        <v>3.481052930079037</v>
       </c>
       <c r="E8">
-        <v>41.53196411394902</v>
+        <v>30.21790776245163</v>
       </c>
       <c r="F8">
-        <v>13.14610844920902</v>
+        <v>16.24133515012816</v>
       </c>
       <c r="G8">
-        <v>15.91851165502848</v>
+        <v>15.23327787461704</v>
       </c>
       <c r="H8">
-        <v>5.727378112521789</v>
+        <v>10.68291413293227</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -733,7 +733,7 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>17.04225829734356</v>
+        <v>12.04396732413313</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>9.063999309477989</v>
+        <v>14.44070488911574</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>27.09567298098233</v>
+        <v>20.7268217441801</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>4.583422466175946</v>
+        <v>3.693422248912526</v>
       </c>
       <c r="E9">
-        <v>47.27728621573053</v>
+        <v>32.66125790400447</v>
       </c>
       <c r="F9">
-        <v>15.04043789439453</v>
+        <v>16.22839243912508</v>
       </c>
       <c r="G9">
-        <v>19.01776221820097</v>
+        <v>15.37000712413979</v>
       </c>
       <c r="H9">
-        <v>5.729290185965219</v>
+        <v>10.53323242032087</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -780,7 +780,7 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>19.67246829056226</v>
+        <v>13.25619601072182</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>10.03316252138402</v>
+        <v>14.23610645473187</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>29.45541078534131</v>
+        <v>21.67495505739306</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>4.945488699611731</v>
+        <v>3.841652596852481</v>
       </c>
       <c r="E10">
-        <v>51.16300911133806</v>
+        <v>34.36792624970143</v>
       </c>
       <c r="F10">
-        <v>16.66674528789901</v>
+        <v>16.26365155001808</v>
       </c>
       <c r="G10">
-        <v>21.25046960081157</v>
+        <v>15.54148193408215</v>
       </c>
       <c r="H10">
-        <v>5.799552844774072</v>
+        <v>10.4386186548996</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -827,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>21.42765786659636</v>
+        <v>14.07367989403048</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>11.23432701657395</v>
+        <v>14.11969993691718</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>30.51665008390069</v>
+        <v>22.09265590060826</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>5.107406627111811</v>
+        <v>3.907137304041775</v>
       </c>
       <c r="E11">
-        <v>52.85714777591176</v>
+        <v>35.12134512265261</v>
       </c>
       <c r="F11">
-        <v>17.39250412413781</v>
+        <v>16.28950507884523</v>
       </c>
       <c r="G11">
-        <v>22.2562076380033</v>
+        <v>15.63477162447703</v>
       </c>
       <c r="H11">
-        <v>5.848585714367571</v>
+        <v>10.39895222847525</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -874,7 +874,7 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>22.18885797631821</v>
+        <v>14.42880270271238</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>11.77125226158172</v>
+        <v>14.07430882089332</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>30.91662796883783</v>
+        <v>22.24875866599788</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>5.167488200239684</v>
+        <v>3.931635869758379</v>
       </c>
       <c r="E12">
-        <v>53.48813219092789</v>
+        <v>35.40307644407073</v>
       </c>
       <c r="F12">
-        <v>17.66537270426551</v>
+        <v>16.30070907775891</v>
       </c>
       <c r="G12">
-        <v>22.63569754265644</v>
+        <v>15.67226876754629</v>
       </c>
       <c r="H12">
-        <v>5.869766685684729</v>
+        <v>10.38442028548262</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -921,7 +921,7 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>22.47186358332052</v>
+        <v>14.56081040142404</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>11.97329737764374</v>
+        <v>14.05822397622318</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>30.83081261342928</v>
+        <v>22.21523296513908</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>5.154603320844144</v>
+        <v>3.926373254450959</v>
       </c>
       <c r="E13">
-        <v>53.35270661199581</v>
+        <v>35.34256341321696</v>
       </c>
       <c r="F13">
-        <v>17.60669137224469</v>
+        <v>16.2982332091592</v>
       </c>
       <c r="G13">
-        <v>22.55402632691319</v>
+        <v>15.6640971055211</v>
       </c>
       <c r="H13">
-        <v>5.865086375089628</v>
+        <v>10.38752819694906</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -968,7 +968,7 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>22.41114459186599</v>
+        <v>14.53249087101859</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>11.92983844228277</v>
+        <v>14.06163878996547</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>30.54970416181091</v>
+        <v>22.10554069685947</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>5.112374260002702</v>
+        <v>3.909158913642401</v>
       </c>
       <c r="E14">
-        <v>52.9092703309321</v>
+        <v>35.14459635812006</v>
       </c>
       <c r="F14">
-        <v>17.41499198697847</v>
+        <v>16.2903985001007</v>
       </c>
       <c r="G14">
-        <v>22.28745514764124</v>
+        <v>15.63781323351734</v>
       </c>
       <c r="H14">
-        <v>5.850275050420654</v>
+        <v>10.39774685758137</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1015,7 +1015,7 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>22.21224543773815</v>
+        <v>14.43971285952497</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>11.78789962322354</v>
+        <v>14.07296329796832</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>30.3765561629138</v>
+        <v>22.03807805926482</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>5.08634728958491</v>
+        <v>3.898575143647379</v>
       </c>
       <c r="E15">
-        <v>52.63628064003282</v>
+        <v>35.02286312670598</v>
       </c>
       <c r="F15">
-        <v>17.2973177518451</v>
+        <v>16.28578365804035</v>
       </c>
       <c r="G15">
-        <v>22.12399852298063</v>
+        <v>15.62199525712164</v>
       </c>
       <c r="H15">
-        <v>5.841547494169618</v>
+        <v>10.40406985903894</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1062,7 +1062,7 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>22.08973452272141</v>
+        <v>14.38256041717823</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>11.70079479573927</v>
+        <v>14.08004410668877</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>29.38738344099986</v>
+        <v>21.64737340225931</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>4.934734156220515</v>
+        <v>3.837332174080813</v>
       </c>
       <c r="E16">
-        <v>51.05081446562445</v>
+        <v>34.31820273676157</v>
       </c>
       <c r="F16">
-        <v>16.6190366530746</v>
+        <v>16.26215973926195</v>
       </c>
       <c r="G16">
-        <v>21.1845464906706</v>
+        <v>15.53569067884404</v>
       </c>
       <c r="H16">
-        <v>5.796705784449131</v>
+        <v>10.44127915607084</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1109,7 +1109,7 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>21.377171414496</v>
+        <v>14.05012924616756</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>11.19905360028758</v>
+        <v>14.1228199362679</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>28.78599592551905</v>
+        <v>21.40411765352016</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>4.839523299666948</v>
+        <v>3.799248930241483</v>
       </c>
       <c r="E17">
-        <v>50.05935190336574</v>
+        <v>33.87983407944502</v>
       </c>
       <c r="F17">
-        <v>16.19936318907661</v>
+        <v>16.25018370200905</v>
       </c>
       <c r="G17">
-        <v>20.60570411077255</v>
+        <v>15.48664407113076</v>
       </c>
       <c r="H17">
-        <v>5.773685863489108</v>
+        <v>10.46497260536788</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1156,7 +1156,7 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>20.93057290893486</v>
+        <v>13.8418559888278</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>10.88887463769288</v>
+        <v>14.15101024498555</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>28.43568200275068</v>
+        <v>21.26292840334396</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>4.783950726611018</v>
+        <v>3.777162323940175</v>
       </c>
       <c r="E18">
-        <v>49.48216566660425</v>
+        <v>33.6255496495366</v>
       </c>
       <c r="F18">
-        <v>15.95664872821597</v>
+        <v>16.2442191914605</v>
       </c>
       <c r="G18">
-        <v>20.27182574074821</v>
+        <v>15.45987476951598</v>
       </c>
       <c r="H18">
-        <v>5.76204340030248</v>
+        <v>10.478917787656</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1203,7 +1203,7 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>20.67018816203067</v>
+        <v>13.72048858602872</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>10.70956755969251</v>
+        <v>14.16793546344334</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>28.31631069991462</v>
+        <v>21.21490885787597</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>4.764995674443606</v>
+        <v>3.769653512022367</v>
       </c>
       <c r="E19">
-        <v>49.28555169923082</v>
+        <v>33.53909347278201</v>
       </c>
       <c r="F19">
-        <v>15.87424027505874</v>
+        <v>16.242358240202</v>
       </c>
       <c r="G19">
-        <v>20.15861734090692</v>
+        <v>15.45105931234666</v>
       </c>
       <c r="H19">
-        <v>5.758370870751541</v>
+        <v>10.48369377738842</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1250,7 +1250,7 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>20.58141980423672</v>
+        <v>13.67912731699604</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>10.64870040252423</v>
+        <v>14.17378764643381</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>28.85047044606607</v>
+        <v>21.43014546600879</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>4.849742455771261</v>
+        <v>3.803321951392201</v>
       </c>
       <c r="E20">
-        <v>50.16561136722129</v>
+        <v>33.92672338147166</v>
       </c>
       <c r="F20">
-        <v>16.24417542040936</v>
+        <v>16.25136293374497</v>
       </c>
       <c r="G20">
-        <v>20.6674202645871</v>
+        <v>15.49171619474701</v>
       </c>
       <c r="H20">
-        <v>5.775969796659814</v>
+        <v>10.46241752728521</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1297,7 +1297,7 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>20.97847690964821</v>
+        <v>13.86419041879135</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>10.92198635028473</v>
+        <v>14.14793564390171</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>30.63247243978058</v>
+        <v>22.137817046096</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>5.12481138646082</v>
+        <v>3.914223444237662</v>
       </c>
       <c r="E21">
-        <v>53.0398041521997</v>
+        <v>35.20284302978962</v>
       </c>
       <c r="F21">
-        <v>17.47135126729593</v>
+        <v>16.29266136868256</v>
       </c>
       <c r="G21">
-        <v>22.36578962479527</v>
+        <v>15.64547481061735</v>
       </c>
       <c r="H21">
-        <v>5.854553373809555</v>
+        <v>10.39473209152031</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1344,7 +1344,7 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>22.27080831787806</v>
+        <v>14.4670314652431</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>11.82962431098215</v>
+        <v>14.06960693163314</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>31.78307258572015</v>
+        <v>22.58820249636454</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>5.297400299732518</v>
+        <v>3.984953049302903</v>
       </c>
       <c r="E22">
-        <v>54.85681891687283</v>
+        <v>36.0159365390116</v>
       </c>
       <c r="F22">
-        <v>18.26201044248631</v>
+        <v>16.32789205578433</v>
       </c>
       <c r="G22">
-        <v>23.46791802526761</v>
+        <v>15.75859572683302</v>
       </c>
       <c r="H22">
-        <v>5.921208358198212</v>
+        <v>10.35334702816625</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1391,7 +1391,7 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>23.084914660771</v>
+        <v>14.84660709701099</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>12.41543594985356</v>
+        <v>14.02485551262803</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>31.17286077525356</v>
+        <v>22.34896688030563</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>5.205941843232107</v>
+        <v>3.947369448034574</v>
       </c>
       <c r="E23">
-        <v>53.89264304322371</v>
+        <v>35.58396931762672</v>
       </c>
       <c r="F23">
-        <v>17.84103078026685</v>
+        <v>16.30833482260146</v>
       </c>
       <c r="G23">
-        <v>22.88036974724377</v>
+        <v>15.69707693116689</v>
       </c>
       <c r="H23">
-        <v>5.884184860147037</v>
+        <v>10.37517288107244</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1438,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>22.6531619222757</v>
+        <v>14.64535685815359</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>12.10341660977786</v>
+        <v>14.04814558829697</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>28.82133575325899</v>
+        <v>21.4183824515093</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>4.845124975052631</v>
+        <v>3.801481135248604</v>
       </c>
       <c r="E24">
-        <v>50.11759383221326</v>
+        <v>33.90553174776743</v>
       </c>
       <c r="F24">
-        <v>16.22392029565382</v>
+        <v>16.25082693543875</v>
       </c>
       <c r="G24">
-        <v>20.63952180379027</v>
+        <v>15.48941863680034</v>
       </c>
       <c r="H24">
-        <v>5.774932283958742</v>
+        <v>10.46357167062562</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1485,7 +1485,7 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>20.95683082369827</v>
+        <v>13.85409809032868</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>10.90701960713321</v>
+        <v>14.14932343496623</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>26.18453031443506</v>
+        <v>20.36642496155924</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>4.448825439709381</v>
+        <v>3.637247096447883</v>
       </c>
       <c r="E25">
-        <v>45.78140667356958</v>
+        <v>32.0143999704422</v>
       </c>
       <c r="F25">
-        <v>14.42890512736547</v>
+        <v>16.22407320118509</v>
       </c>
       <c r="G25">
-        <v>18.18671481464374</v>
+        <v>15.32053434981534</v>
       </c>
       <c r="H25">
-        <v>5.717426788066184</v>
+        <v>10.57104207136823</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1532,7 +1532,7 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>18.99241126354893</v>
+        <v>12.94075581177324</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>9.581982735394522</v>
+        <v>14.28556954387459</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_217/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_217/res_line/loading_percent.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>19.5551867389672</v>
+        <v>24.09425991988786</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>3.511193309794155</v>
+        <v>4.138956392045868</v>
       </c>
       <c r="E2">
-        <v>30.56414320093915</v>
+        <v>42.36385956891564</v>
       </c>
       <c r="F2">
-        <v>16.23442045071431</v>
+        <v>13.37518868141986</v>
       </c>
       <c r="G2">
-        <v>15.24396481127946</v>
+        <v>16.35125572377687</v>
       </c>
       <c r="H2">
-        <v>10.66047157887486</v>
+        <v>5.720501057303597</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -451,7 +451,7 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>12.21951769931389</v>
+        <v>17.42653404424275</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>14.40858965083575</v>
+        <v>9.147747188037192</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>18.98535455987903</v>
+        <v>22.58395548607518</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>3.423019758495528</v>
+        <v>3.914406036811326</v>
       </c>
       <c r="E3">
-        <v>29.55224194743879</v>
+        <v>39.911304219352</v>
       </c>
       <c r="F3">
-        <v>16.25993267479086</v>
+        <v>12.71786548043231</v>
       </c>
       <c r="G3">
-        <v>15.22173495210235</v>
+        <v>15.09235760247186</v>
       </c>
       <c r="H3">
-        <v>10.72744311086956</v>
+        <v>5.747406399337923</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -498,7 +498,7 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>11.70213290230438</v>
+        <v>16.28935820687674</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>14.50580451159985</v>
+        <v>8.9191345952134</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.62667419928117</v>
+        <v>21.61042312048247</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>3.367696547106809</v>
+        <v>3.76951437859365</v>
       </c>
       <c r="E4">
-        <v>28.91932719929798</v>
+        <v>38.34035897582389</v>
       </c>
       <c r="F4">
-        <v>16.2846156664853</v>
+        <v>12.32677293704319</v>
       </c>
       <c r="G4">
-        <v>15.22256976625725</v>
+        <v>14.36071578651875</v>
       </c>
       <c r="H4">
-        <v>10.77168326392987</v>
+        <v>5.774969815346374</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -545,7 +545,7 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>11.37111731351229</v>
+        <v>15.55332574873713</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>14.57221457812901</v>
+        <v>8.802146605343378</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.47847566522514</v>
+        <v>21.20213105140633</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>3.344881738717013</v>
+        <v>3.708737337158329</v>
       </c>
       <c r="E5">
-        <v>28.65894404764164</v>
+        <v>37.68429182851862</v>
       </c>
       <c r="F5">
-        <v>16.29692374009552</v>
+        <v>12.1708189857664</v>
       </c>
       <c r="G5">
-        <v>15.22652042297453</v>
+        <v>14.08637083850699</v>
       </c>
       <c r="H5">
-        <v>10.79049288575182</v>
+        <v>5.78880026338152</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -592,7 +592,7 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>11.23300693721584</v>
+        <v>15.24385182835667</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>14.60095063889294</v>
+        <v>8.760210086545941</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.45375012214535</v>
+        <v>21.13363791298265</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>3.341077881753296</v>
+        <v>3.698541806156298</v>
       </c>
       <c r="E6">
-        <v>28.61557268319184</v>
+        <v>37.57440866021924</v>
       </c>
       <c r="F6">
-        <v>16.29910277280427</v>
+        <v>12.14513766848474</v>
       </c>
       <c r="G6">
-        <v>15.22739337146813</v>
+        <v>14.04099802016886</v>
       </c>
       <c r="H6">
-        <v>10.7936633172457</v>
+        <v>5.791248526390813</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -639,7 +639,7 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>11.20988374739429</v>
+        <v>15.19188756867421</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>14.60582283045584</v>
+        <v>8.753587892942559</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.6246835276272</v>
+        <v>21.60496350249958</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>3.367389914664843</v>
+        <v>3.768701685073574</v>
       </c>
       <c r="E7">
-        <v>28.9158249374936</v>
+        <v>38.33157466622167</v>
       </c>
       <c r="F7">
-        <v>16.2847725750767</v>
+        <v>12.32465547242098</v>
       </c>
       <c r="G7">
-        <v>15.22260847678614</v>
+        <v>14.35700408421411</v>
       </c>
       <c r="H7">
-        <v>10.77193377715692</v>
+        <v>5.775146052920262</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -686,7 +686,7 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>11.36926754835107</v>
+        <v>15.54919070584573</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>14.57259536880947</v>
+        <v>8.801558031811773</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>19.36063882931205</v>
+        <v>23.58311121523438</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>3.481052930079037</v>
+        <v>4.063004563640779</v>
       </c>
       <c r="E8">
-        <v>30.21790776245163</v>
+        <v>41.53196411394884</v>
       </c>
       <c r="F8">
-        <v>16.24133515012816</v>
+        <v>13.14610844920904</v>
       </c>
       <c r="G8">
-        <v>15.23327787461704</v>
+        <v>15.91851165502853</v>
       </c>
       <c r="H8">
-        <v>10.68291413293227</v>
+        <v>5.7273781125218</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -733,7 +733,7 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>12.04396732413313</v>
+        <v>17.04225829734352</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>14.44070488911574</v>
+        <v>9.063999309478024</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>20.7268217441801</v>
+        <v>27.09567298098233</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>3.693422248912526</v>
+        <v>4.583422466176021</v>
       </c>
       <c r="E9">
-        <v>32.66125790400447</v>
+        <v>47.27728621573065</v>
       </c>
       <c r="F9">
-        <v>16.22839243912508</v>
+        <v>15.04043789439453</v>
       </c>
       <c r="G9">
-        <v>15.37000712413979</v>
+        <v>19.01776221820085</v>
       </c>
       <c r="H9">
-        <v>10.53323242032087</v>
+        <v>5.729290185965192</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -780,7 +780,7 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>13.25619601072182</v>
+        <v>19.67246829056233</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>14.23610645473187</v>
+        <v>10.033162521384</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>21.67495505739306</v>
+        <v>29.45541078534129</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>3.841652596852481</v>
+        <v>4.945488699611774</v>
       </c>
       <c r="E10">
-        <v>34.36792624970143</v>
+        <v>51.16300911133818</v>
       </c>
       <c r="F10">
-        <v>16.26365155001808</v>
+        <v>16.66674528789898</v>
       </c>
       <c r="G10">
-        <v>15.54148193408215</v>
+        <v>21.25046960081153</v>
       </c>
       <c r="H10">
-        <v>10.4386186548996</v>
+        <v>5.799552844774107</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -827,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>14.07367989403048</v>
+        <v>21.42765786659643</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>14.11969993691718</v>
+        <v>11.2343270165739</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>22.09265590060826</v>
+        <v>30.51665008390061</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>3.907137304041775</v>
+        <v>5.107406627111812</v>
       </c>
       <c r="E11">
-        <v>35.12134512265261</v>
+        <v>52.85714777591144</v>
       </c>
       <c r="F11">
-        <v>16.28950507884523</v>
+        <v>17.39250412413789</v>
       </c>
       <c r="G11">
-        <v>15.63477162447703</v>
+        <v>22.25620763800343</v>
       </c>
       <c r="H11">
-        <v>10.39895222847525</v>
+        <v>5.848585714367593</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -874,7 +874,7 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>14.42880270271238</v>
+        <v>22.18885797631815</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>14.07430882089332</v>
+        <v>11.77125226158178</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>22.24875866599788</v>
+        <v>30.91662796883788</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>3.931635869758379</v>
+        <v>5.1674882002397</v>
       </c>
       <c r="E12">
-        <v>35.40307644407073</v>
+        <v>53.48813219092784</v>
       </c>
       <c r="F12">
-        <v>16.30070907775891</v>
+        <v>17.66537270426554</v>
       </c>
       <c r="G12">
-        <v>15.67226876754629</v>
+        <v>22.63569754265657</v>
       </c>
       <c r="H12">
-        <v>10.38442028548262</v>
+        <v>5.869766685684735</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -921,7 +921,7 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>14.56081040142404</v>
+        <v>22.47186358332051</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>14.05822397622318</v>
+        <v>11.97329737764377</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>22.21523296513908</v>
+        <v>30.83081261342937</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>3.926373254450959</v>
+        <v>5.154603320844141</v>
       </c>
       <c r="E13">
-        <v>35.34256341321696</v>
+        <v>53.35270661199601</v>
       </c>
       <c r="F13">
-        <v>16.2982332091592</v>
+        <v>17.60669137224478</v>
       </c>
       <c r="G13">
-        <v>15.6640971055211</v>
+        <v>22.55402632691321</v>
       </c>
       <c r="H13">
-        <v>10.38752819694906</v>
+        <v>5.865086375089524</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -968,7 +968,7 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>14.53249087101859</v>
+        <v>22.41114459186603</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>14.06163878996547</v>
+        <v>11.9298384422828</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>22.10554069685947</v>
+        <v>30.54970416181085</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>3.909158913642401</v>
+        <v>5.112374260002704</v>
       </c>
       <c r="E14">
-        <v>35.14459635812006</v>
+        <v>52.90927033093215</v>
       </c>
       <c r="F14">
-        <v>16.2903985001007</v>
+        <v>17.41499198697849</v>
       </c>
       <c r="G14">
-        <v>15.63781323351734</v>
+        <v>22.28745514764134</v>
       </c>
       <c r="H14">
-        <v>10.39774685758137</v>
+        <v>5.850275050420639</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1015,7 +1015,7 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>14.43971285952497</v>
+        <v>22.21224543773823</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>14.07296329796832</v>
+        <v>11.78789962322357</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>22.03807805926482</v>
+        <v>30.3765561629138</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>3.898575143647379</v>
+        <v>5.08634728958492</v>
       </c>
       <c r="E15">
-        <v>35.02286312670598</v>
+        <v>52.63628064003287</v>
       </c>
       <c r="F15">
-        <v>16.28578365804035</v>
+        <v>17.29731775184506</v>
       </c>
       <c r="G15">
-        <v>15.62199525712164</v>
+        <v>22.12399852298055</v>
       </c>
       <c r="H15">
-        <v>10.40406985903894</v>
+        <v>5.84154749416961</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1062,7 +1062,7 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>14.38256041717823</v>
+        <v>22.0897345227214</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>14.08004410668877</v>
+        <v>11.70079479573924</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>21.64737340225931</v>
+        <v>29.38738344099981</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>3.837332174080813</v>
+        <v>4.93473415622049</v>
       </c>
       <c r="E16">
-        <v>34.31820273676157</v>
+        <v>51.05081446562452</v>
       </c>
       <c r="F16">
-        <v>16.26215973926195</v>
+        <v>16.61903665307457</v>
       </c>
       <c r="G16">
-        <v>15.53569067884404</v>
+        <v>21.18454649067056</v>
       </c>
       <c r="H16">
-        <v>10.44127915607084</v>
+        <v>5.796705784449131</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1109,7 +1109,7 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>14.05012924616756</v>
+        <v>21.377171414496</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>14.1228199362679</v>
+        <v>11.19905360028756</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>21.40411765352016</v>
+        <v>28.78599592551902</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>3.799248930241483</v>
+        <v>4.83952329966688</v>
       </c>
       <c r="E17">
-        <v>33.87983407944502</v>
+        <v>50.05935190336604</v>
       </c>
       <c r="F17">
-        <v>16.25018370200905</v>
+        <v>16.19936318907657</v>
       </c>
       <c r="G17">
-        <v>15.48664407113076</v>
+        <v>20.60570411077253</v>
       </c>
       <c r="H17">
-        <v>10.46497260536788</v>
+        <v>5.773685863489121</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1156,7 +1156,7 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>13.8418559888278</v>
+        <v>20.93057290893496</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>14.15101024498555</v>
+        <v>10.88887463769284</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>21.26292840334396</v>
+        <v>28.4356820027507</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>3.777162323940175</v>
+        <v>4.783950726610993</v>
       </c>
       <c r="E18">
-        <v>33.6255496495366</v>
+        <v>49.48216566660405</v>
       </c>
       <c r="F18">
-        <v>16.2442191914605</v>
+        <v>15.95664872821597</v>
       </c>
       <c r="G18">
-        <v>15.45987476951598</v>
+        <v>20.2718257407482</v>
       </c>
       <c r="H18">
-        <v>10.478917787656</v>
+        <v>5.762043400302516</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1203,7 +1203,7 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>13.72048858602872</v>
+        <v>20.67018816203066</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>14.16793546344334</v>
+        <v>10.70956755969248</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>21.21490885787597</v>
+        <v>28.31631069991472</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>3.769653512022367</v>
+        <v>4.7649956744436</v>
       </c>
       <c r="E19">
-        <v>33.53909347278201</v>
+        <v>49.28555169923096</v>
       </c>
       <c r="F19">
-        <v>16.242358240202</v>
+        <v>15.87424027505871</v>
       </c>
       <c r="G19">
-        <v>15.45105931234666</v>
+        <v>20.15861734090703</v>
       </c>
       <c r="H19">
-        <v>10.48369377738842</v>
+        <v>5.75837087075157</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1250,7 +1250,7 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>13.67912731699604</v>
+        <v>20.58141980423672</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>14.17378764643381</v>
+        <v>10.64870040252422</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>21.43014546600879</v>
+        <v>28.85047044606604</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>3.803321951392201</v>
+        <v>4.849742455771218</v>
       </c>
       <c r="E20">
-        <v>33.92672338147166</v>
+        <v>50.16561136722125</v>
       </c>
       <c r="F20">
-        <v>16.25136293374497</v>
+        <v>16.24417542040933</v>
       </c>
       <c r="G20">
-        <v>15.49171619474701</v>
+        <v>20.66742026458712</v>
       </c>
       <c r="H20">
-        <v>10.46241752728521</v>
+        <v>5.77596979665983</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1297,7 +1297,7 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>13.86419041879135</v>
+        <v>20.97847690964818</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>14.14793564390171</v>
+        <v>10.92198635028469</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>22.137817046096</v>
+        <v>30.63247243978059</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>3.914223444237662</v>
+        <v>5.12481138646082</v>
       </c>
       <c r="E21">
-        <v>35.20284302978962</v>
+        <v>53.03980415219976</v>
       </c>
       <c r="F21">
-        <v>16.29266136868256</v>
+        <v>17.47135126729593</v>
       </c>
       <c r="G21">
-        <v>15.64547481061735</v>
+        <v>22.36578962479529</v>
       </c>
       <c r="H21">
-        <v>10.39473209152031</v>
+        <v>5.854553373809511</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1344,7 +1344,7 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>14.4670314652431</v>
+        <v>22.2708083178781</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>14.06960693163314</v>
+        <v>11.82962431098215</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>22.58820249636454</v>
+        <v>31.78307258572012</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>3.984953049302903</v>
+        <v>5.297400299732494</v>
       </c>
       <c r="E22">
-        <v>36.0159365390116</v>
+        <v>54.85681891687273</v>
       </c>
       <c r="F22">
-        <v>16.32789205578433</v>
+        <v>18.26201044248626</v>
       </c>
       <c r="G22">
-        <v>15.75859572683302</v>
+        <v>23.46791802526752</v>
       </c>
       <c r="H22">
-        <v>10.35334702816625</v>
+        <v>5.921208358198245</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1391,7 +1391,7 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>14.84660709701099</v>
+        <v>23.08491466077104</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>14.02485551262803</v>
+        <v>12.4154359498535</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>22.34896688030563</v>
+        <v>31.17286077525351</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>3.947369448034574</v>
+        <v>5.205941843232157</v>
       </c>
       <c r="E23">
-        <v>35.58396931762672</v>
+        <v>53.89264304322361</v>
       </c>
       <c r="F23">
-        <v>16.30833482260146</v>
+        <v>17.84103078026688</v>
       </c>
       <c r="G23">
-        <v>15.69707693116689</v>
+        <v>22.88036974724381</v>
       </c>
       <c r="H23">
-        <v>10.37517288107244</v>
+        <v>5.884184860147052</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1438,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>14.64535685815359</v>
+        <v>22.65316192227561</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>14.04814558829697</v>
+        <v>12.10341660977789</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>21.4183824515093</v>
+        <v>28.82133575325907</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>3.801481135248604</v>
+        <v>4.845124975052589</v>
       </c>
       <c r="E24">
-        <v>33.90553174776743</v>
+        <v>50.11759383221342</v>
       </c>
       <c r="F24">
-        <v>16.25082693543875</v>
+        <v>16.22392029565379</v>
       </c>
       <c r="G24">
-        <v>15.48941863680034</v>
+        <v>20.63952180379024</v>
       </c>
       <c r="H24">
-        <v>10.46357167062562</v>
+        <v>5.774932283958726</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1485,7 +1485,7 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>13.85409809032868</v>
+        <v>20.95683082369832</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>14.14932343496623</v>
+        <v>10.9070196071332</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>20.36642496155924</v>
+        <v>26.18453031443507</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>3.637247096447883</v>
+        <v>4.448825439709355</v>
       </c>
       <c r="E25">
-        <v>32.0143999704422</v>
+        <v>45.78140667356941</v>
       </c>
       <c r="F25">
-        <v>16.22407320118509</v>
+        <v>14.4289051273655</v>
       </c>
       <c r="G25">
-        <v>15.32053434981534</v>
+        <v>18.18671481464382</v>
       </c>
       <c r="H25">
-        <v>10.57104207136823</v>
+        <v>5.717426788066288</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1532,7 +1532,7 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>12.94075581177324</v>
+        <v>18.99241126354887</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>14.28556954387459</v>
+        <v>9.581982735394556</v>
       </c>
     </row>
   </sheetData>
